--- a/results/CIFAR100/simplecnn/noise_0.0/SR-Adam/runs_and_aggregate.xlsx
+++ b/results/CIFAR100/simplecnn/noise_0.0/SR-Adam/runs_and_aggregate.xlsx
@@ -487,7 +487,7 @@
         <v>13.35</v>
       </c>
       <c r="F2" t="n">
-        <v>32.23789596557617</v>
+        <v>27.11155676841736</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>19.9</v>
       </c>
       <c r="F3" t="n">
-        <v>31.59685897827148</v>
+        <v>26.71789813041687</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>26.19</v>
       </c>
       <c r="F4" t="n">
-        <v>31.49386024475098</v>
+        <v>26.61899018287659</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>28.38</v>
       </c>
       <c r="F5" t="n">
-        <v>32.10604763031006</v>
+        <v>26.70770621299744</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>30.77</v>
       </c>
       <c r="F6" t="n">
-        <v>33.17708444595337</v>
+        <v>26.71150660514832</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>33.52</v>
       </c>
       <c r="F7" t="n">
-        <v>32.77177906036377</v>
+        <v>26.75455546379089</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>35.26</v>
       </c>
       <c r="F8" t="n">
-        <v>32.04795050621033</v>
+        <v>26.7333972454071</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>36.07</v>
       </c>
       <c r="F9" t="n">
-        <v>31.95758175849915</v>
+        <v>26.74641966819763</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>37.66</v>
       </c>
       <c r="F10" t="n">
-        <v>31.90228176116944</v>
+        <v>26.83454918861389</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>38.72</v>
       </c>
       <c r="F11" t="n">
-        <v>32.72186827659607</v>
+        <v>26.91780710220337</v>
       </c>
     </row>
     <row r="12">
@@ -687,7 +687,7 @@
         <v>38.55</v>
       </c>
       <c r="F12" t="n">
-        <v>32.44829297065735</v>
+        <v>26.70109581947327</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +707,7 @@
         <v>40.06</v>
       </c>
       <c r="F13" t="n">
-        <v>32.3097128868103</v>
+        <v>26.65547919273376</v>
       </c>
     </row>
     <row r="14">
@@ -727,7 +727,7 @@
         <v>40.28</v>
       </c>
       <c r="F14" t="n">
-        <v>32.08151793479919</v>
+        <v>26.9501051902771</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +747,7 @@
         <v>40.87</v>
       </c>
       <c r="F15" t="n">
-        <v>32.00272989273071</v>
+        <v>26.64055585861206</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>41.88</v>
       </c>
       <c r="F16" t="n">
-        <v>32.10468053817749</v>
+        <v>26.66196084022522</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         <v>41.29</v>
       </c>
       <c r="F17" t="n">
-        <v>32.36263489723206</v>
+        <v>26.78947281837464</v>
       </c>
     </row>
     <row r="18">
@@ -807,7 +807,7 @@
         <v>42.13</v>
       </c>
       <c r="F18" t="n">
-        <v>32.20613098144531</v>
+        <v>26.68064761161804</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         <v>42.68</v>
       </c>
       <c r="F19" t="n">
-        <v>32.17342686653137</v>
+        <v>26.76467680931092</v>
       </c>
     </row>
     <row r="20">
@@ -847,7 +847,7 @@
         <v>42.99</v>
       </c>
       <c r="F20" t="n">
-        <v>32.0421347618103</v>
+        <v>26.69610357284546</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +867,7 @@
         <v>43.2</v>
       </c>
       <c r="F21" t="n">
-        <v>32.82439208030701</v>
+        <v>27.07684278488159</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
         <v>12.52</v>
       </c>
       <c r="F2" t="n">
-        <v>32.55114030838013</v>
+        <v>26.92121696472168</v>
       </c>
     </row>
     <row r="3">
@@ -958,7 +958,7 @@
         <v>19.67</v>
       </c>
       <c r="F3" t="n">
-        <v>31.88253903388977</v>
+        <v>26.79382705688477</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +978,7 @@
         <v>25.24</v>
       </c>
       <c r="F4" t="n">
-        <v>31.76244974136353</v>
+        <v>26.71684694290161</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +998,7 @@
         <v>27.9</v>
       </c>
       <c r="F5" t="n">
-        <v>31.58470678329468</v>
+        <v>26.77211308479309</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1018,7 @@
         <v>31.07</v>
       </c>
       <c r="F6" t="n">
-        <v>32.52691388130188</v>
+        <v>26.79521560668945</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1038,7 @@
         <v>32.36</v>
       </c>
       <c r="F7" t="n">
-        <v>33.41149234771729</v>
+        <v>26.69760656356812</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>34.22</v>
       </c>
       <c r="F8" t="n">
-        <v>32.97989559173584</v>
+        <v>26.84830617904663</v>
       </c>
     </row>
     <row r="9">
@@ -1078,7 +1078,7 @@
         <v>35.35</v>
       </c>
       <c r="F9" t="n">
-        <v>32.26297664642334</v>
+        <v>26.69267249107361</v>
       </c>
     </row>
     <row r="10">
@@ -1098,7 +1098,7 @@
         <v>36.53</v>
       </c>
       <c r="F10" t="n">
-        <v>32.12542104721069</v>
+        <v>26.99621367454529</v>
       </c>
     </row>
     <row r="11">
@@ -1118,7 +1118,7 @@
         <v>36.87</v>
       </c>
       <c r="F11" t="n">
-        <v>32.67149782180786</v>
+        <v>27.0455482006073</v>
       </c>
     </row>
     <row r="12">
@@ -1138,7 +1138,7 @@
         <v>38.13</v>
       </c>
       <c r="F12" t="n">
-        <v>32.10346984863281</v>
+        <v>26.8530387878418</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>38.48</v>
       </c>
       <c r="F13" t="n">
-        <v>32.08236384391785</v>
+        <v>26.89045310020447</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>40.15</v>
       </c>
       <c r="F14" t="n">
-        <v>32.24891138076782</v>
+        <v>26.65666818618774</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
         <v>39.93</v>
       </c>
       <c r="F15" t="n">
-        <v>32.31180191040039</v>
+        <v>26.77835559844971</v>
       </c>
     </row>
     <row r="16">
@@ -1218,7 +1218,7 @@
         <v>40.81</v>
       </c>
       <c r="F16" t="n">
-        <v>32.14763855934143</v>
+        <v>26.68855929374695</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1238,7 @@
         <v>40.59</v>
       </c>
       <c r="F17" t="n">
-        <v>32.26276612281799</v>
+        <v>26.74869871139526</v>
       </c>
     </row>
     <row r="18">
@@ -1258,7 +1258,7 @@
         <v>41.58</v>
       </c>
       <c r="F18" t="n">
-        <v>32.22937560081482</v>
+        <v>26.73119115829468</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         <v>41.49</v>
       </c>
       <c r="F19" t="n">
-        <v>32.03537774085999</v>
+        <v>26.73916411399841</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1298,7 @@
         <v>42.12</v>
       </c>
       <c r="F20" t="n">
-        <v>32.43386125564575</v>
+        <v>26.81686234474182</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>42.99</v>
       </c>
       <c r="F21" t="n">
-        <v>32.82764554023743</v>
+        <v>26.92924523353577</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1389,7 @@
         <v>13.24</v>
       </c>
       <c r="F2" t="n">
-        <v>33.06618714332581</v>
+        <v>27.01069140434265</v>
       </c>
     </row>
     <row r="3">
@@ -1409,7 +1409,7 @@
         <v>21.54</v>
       </c>
       <c r="F3" t="n">
-        <v>32.19712233543396</v>
+        <v>26.69698977470398</v>
       </c>
     </row>
     <row r="4">
@@ -1429,7 +1429,7 @@
         <v>26.04</v>
       </c>
       <c r="F4" t="n">
-        <v>31.6460165977478</v>
+        <v>26.71156001091004</v>
       </c>
     </row>
     <row r="5">
@@ -1449,7 +1449,7 @@
         <v>29.67</v>
       </c>
       <c r="F5" t="n">
-        <v>31.66337752342224</v>
+        <v>26.71007394790649</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1469,7 @@
         <v>32.19</v>
       </c>
       <c r="F6" t="n">
-        <v>31.63874006271362</v>
+        <v>26.743967294693</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1489,7 @@
         <v>34.63</v>
       </c>
       <c r="F7" t="n">
-        <v>32.9554967880249</v>
+        <v>26.74365186691284</v>
       </c>
     </row>
     <row r="8">
@@ -1509,7 +1509,7 @@
         <v>35.65</v>
       </c>
       <c r="F8" t="n">
-        <v>33.23099303245544</v>
+        <v>26.81051468849182</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>37.01</v>
       </c>
       <c r="F9" t="n">
-        <v>32.42079591751099</v>
+        <v>26.64302849769592</v>
       </c>
     </row>
     <row r="10">
@@ -1549,7 +1549,7 @@
         <v>38.15</v>
       </c>
       <c r="F10" t="n">
-        <v>32.98316192626953</v>
+        <v>26.70071911811829</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1569,7 @@
         <v>38.9</v>
       </c>
       <c r="F11" t="n">
-        <v>32.86280751228333</v>
+        <v>26.94250249862671</v>
       </c>
     </row>
     <row r="12">
@@ -1589,7 +1589,7 @@
         <v>40.06</v>
       </c>
       <c r="F12" t="n">
-        <v>32.47354054450989</v>
+        <v>26.715411901474</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>40.7</v>
       </c>
       <c r="F13" t="n">
-        <v>32.08070945739746</v>
+        <v>26.73483943939209</v>
       </c>
     </row>
     <row r="14">
@@ -1629,7 +1629,7 @@
         <v>41.18</v>
       </c>
       <c r="F14" t="n">
-        <v>32.02698016166687</v>
+        <v>26.67713260650635</v>
       </c>
     </row>
     <row r="15">
@@ -1649,7 +1649,7 @@
         <v>41.22</v>
       </c>
       <c r="F15" t="n">
-        <v>32.22220802307129</v>
+        <v>26.7915632724762</v>
       </c>
     </row>
     <row r="16">
@@ -1669,7 +1669,7 @@
         <v>41.22</v>
       </c>
       <c r="F16" t="n">
-        <v>32.14033460617065</v>
+        <v>26.80637645721436</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         <v>42.25</v>
       </c>
       <c r="F17" t="n">
-        <v>32.4516167640686</v>
+        <v>26.75828838348389</v>
       </c>
     </row>
     <row r="18">
@@ -1709,7 +1709,7 @@
         <v>42.27</v>
       </c>
       <c r="F18" t="n">
-        <v>31.96733641624451</v>
+        <v>26.77852940559387</v>
       </c>
     </row>
     <row r="19">
@@ -1729,7 +1729,7 @@
         <v>42.71</v>
       </c>
       <c r="F19" t="n">
-        <v>32.16392636299133</v>
+        <v>26.70512557029724</v>
       </c>
     </row>
     <row r="20">
@@ -1749,7 +1749,7 @@
         <v>43.27</v>
       </c>
       <c r="F20" t="n">
-        <v>32.22988390922546</v>
+        <v>26.64127516746521</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1769,7 @@
         <v>44.13</v>
       </c>
       <c r="F21" t="n">
-        <v>32.65934252738953</v>
+        <v>26.97547578811645</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1840,7 @@
         <v>13.56</v>
       </c>
       <c r="F2" t="n">
-        <v>32.92950439453125</v>
+        <v>27.10856127738953</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1860,7 @@
         <v>19.32</v>
       </c>
       <c r="F3" t="n">
-        <v>32.20991635322571</v>
+        <v>26.76086354255676</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1880,7 @@
         <v>23.7</v>
       </c>
       <c r="F4" t="n">
-        <v>31.7260799407959</v>
+        <v>26.73359155654907</v>
       </c>
     </row>
     <row r="5">
@@ -1900,7 +1900,7 @@
         <v>27.24</v>
       </c>
       <c r="F5" t="n">
-        <v>31.9320158958435</v>
+        <v>26.70680046081543</v>
       </c>
     </row>
     <row r="6">
@@ -1920,7 +1920,7 @@
         <v>29.89</v>
       </c>
       <c r="F6" t="n">
-        <v>31.62215065956116</v>
+        <v>26.75707626342773</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1940,7 @@
         <v>31.82</v>
       </c>
       <c r="F7" t="n">
-        <v>31.80253100395202</v>
+        <v>26.68600130081177</v>
       </c>
     </row>
     <row r="8">
@@ -1960,7 +1960,7 @@
         <v>33.41</v>
       </c>
       <c r="F8" t="n">
-        <v>33.27259564399719</v>
+        <v>26.75049138069153</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +1980,7 @@
         <v>35.41</v>
       </c>
       <c r="F9" t="n">
-        <v>33.21787214279175</v>
+        <v>26.75858068466187</v>
       </c>
     </row>
     <row r="10">
@@ -2000,7 +2000,7 @@
         <v>35.49</v>
       </c>
       <c r="F10" t="n">
-        <v>32.25972628593445</v>
+        <v>26.85736227035522</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +2020,7 @@
         <v>35.96</v>
       </c>
       <c r="F11" t="n">
-        <v>32.69503855705261</v>
+        <v>26.95536780357361</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2040,7 @@
         <v>37.19</v>
       </c>
       <c r="F12" t="n">
-        <v>32.22395730018616</v>
+        <v>26.710857629776</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         <v>37.59</v>
       </c>
       <c r="F13" t="n">
-        <v>32.05300235748291</v>
+        <v>26.88304400444031</v>
       </c>
     </row>
     <row r="14">
@@ -2080,7 +2080,7 @@
         <v>38.51</v>
       </c>
       <c r="F14" t="n">
-        <v>32.13686394691467</v>
+        <v>26.89371085166931</v>
       </c>
     </row>
     <row r="15">
@@ -2100,7 +2100,7 @@
         <v>39.15</v>
       </c>
       <c r="F15" t="n">
-        <v>31.88092231750488</v>
+        <v>26.86560773849488</v>
       </c>
     </row>
     <row r="16">
@@ -2120,7 +2120,7 @@
         <v>39.67</v>
       </c>
       <c r="F16" t="n">
-        <v>31.95554447174072</v>
+        <v>26.74056816101075</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +2140,7 @@
         <v>39.64</v>
       </c>
       <c r="F17" t="n">
-        <v>32.00232172012329</v>
+        <v>26.9486255645752</v>
       </c>
     </row>
     <row r="18">
@@ -2160,7 +2160,7 @@
         <v>39.72</v>
       </c>
       <c r="F18" t="n">
-        <v>31.92220950126648</v>
+        <v>26.81576442718506</v>
       </c>
     </row>
     <row r="19">
@@ -2180,7 +2180,7 @@
         <v>40.18</v>
       </c>
       <c r="F19" t="n">
-        <v>32.05035734176636</v>
+        <v>26.89855408668518</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         <v>40.09</v>
       </c>
       <c r="F20" t="n">
-        <v>31.91177940368652</v>
+        <v>26.81344199180603</v>
       </c>
     </row>
     <row r="21">
@@ -2220,7 +2220,7 @@
         <v>40.83</v>
       </c>
       <c r="F21" t="n">
-        <v>32.37943840026855</v>
+        <v>26.89301753044128</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2291,7 @@
         <v>13.01</v>
       </c>
       <c r="F2" t="n">
-        <v>32.0482177734375</v>
+        <v>27.05046677589417</v>
       </c>
     </row>
     <row r="3">
@@ -2311,7 +2311,7 @@
         <v>19.74</v>
       </c>
       <c r="F3" t="n">
-        <v>31.56151008605957</v>
+        <v>26.85525345802307</v>
       </c>
     </row>
     <row r="4">
@@ -2331,7 +2331,7 @@
         <v>24.36</v>
       </c>
       <c r="F4" t="n">
-        <v>31.17669486999512</v>
+        <v>26.87679696083069</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         <v>27.73</v>
       </c>
       <c r="F5" t="n">
-        <v>31.03513717651367</v>
+        <v>26.96823835372925</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v>30.06</v>
       </c>
       <c r="F6" t="n">
-        <v>30.65245747566223</v>
+        <v>26.76120114326477</v>
       </c>
     </row>
     <row r="7">
@@ -2391,7 +2391,7 @@
         <v>32.4</v>
       </c>
       <c r="F7" t="n">
-        <v>30.79631066322327</v>
+        <v>26.69966125488281</v>
       </c>
     </row>
     <row r="8">
@@ -2411,7 +2411,7 @@
         <v>34.65</v>
       </c>
       <c r="F8" t="n">
-        <v>31.16198539733887</v>
+        <v>26.78378415107727</v>
       </c>
     </row>
     <row r="9">
@@ -2431,7 +2431,7 @@
         <v>35.77</v>
       </c>
       <c r="F9" t="n">
-        <v>32.58877372741699</v>
+        <v>26.8333580493927</v>
       </c>
     </row>
     <row r="10">
@@ -2451,7 +2451,7 @@
         <v>37.01</v>
       </c>
       <c r="F10" t="n">
-        <v>32.47614526748657</v>
+        <v>26.67384791374207</v>
       </c>
     </row>
     <row r="11">
@@ -2471,7 +2471,7 @@
         <v>37.93</v>
       </c>
       <c r="F11" t="n">
-        <v>32.34985613822937</v>
+        <v>26.96737027168274</v>
       </c>
     </row>
     <row r="12">
@@ -2491,7 +2491,7 @@
         <v>38.96</v>
       </c>
       <c r="F12" t="n">
-        <v>31.30906963348389</v>
+        <v>26.90947723388672</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +2511,7 @@
         <v>39.71</v>
       </c>
       <c r="F13" t="n">
-        <v>31.17011165618896</v>
+        <v>26.84405064582825</v>
       </c>
     </row>
     <row r="14">
@@ -2531,7 +2531,7 @@
         <v>39.27</v>
       </c>
       <c r="F14" t="n">
-        <v>31.25170874595642</v>
+        <v>26.85953330993652</v>
       </c>
     </row>
     <row r="15">
@@ -2551,7 +2551,7 @@
         <v>40.5</v>
       </c>
       <c r="F15" t="n">
-        <v>31.43401145935058</v>
+        <v>26.91600227355957</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +2571,7 @@
         <v>40.78</v>
       </c>
       <c r="F16" t="n">
-        <v>31.47011828422546</v>
+        <v>26.75749969482422</v>
       </c>
     </row>
     <row r="17">
@@ -2591,7 +2591,7 @@
         <v>41.37</v>
       </c>
       <c r="F17" t="n">
-        <v>31.65279674530029</v>
+        <v>26.67129802703857</v>
       </c>
     </row>
     <row r="18">
@@ -2611,7 +2611,7 @@
         <v>42.05</v>
       </c>
       <c r="F18" t="n">
-        <v>31.32701873779297</v>
+        <v>26.67506551742554</v>
       </c>
     </row>
     <row r="19">
@@ -2631,7 +2631,7 @@
         <v>42.13</v>
       </c>
       <c r="F19" t="n">
-        <v>31.5504252910614</v>
+        <v>26.72724390029907</v>
       </c>
     </row>
     <row r="20">
@@ -2651,7 +2651,7 @@
         <v>42.56</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61875081062317</v>
+        <v>26.8412299156189</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +2671,7 @@
         <v>42.54</v>
       </c>
       <c r="F21" t="n">
-        <v>31.9942319393158</v>
+        <v>26.88141226768494</v>
       </c>
     </row>
   </sheetData>
